--- a/gmail_flight.xlsx
+++ b/gmail_flight.xlsx
@@ -325,7 +325,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -355,12 +355,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>817 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>718</t>
+          <t>718 </t>
         </is>
       </c>
     </row>
@@ -372,12 +372,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>775 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>817 </t>
         </is>
       </c>
     </row>
@@ -389,12 +389,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>817 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>775 </t>
         </is>
       </c>
     </row>

--- a/gmail_flight.xlsx
+++ b/gmail_flight.xlsx
@@ -322,10 +322,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C5"/>
+      <selection activeCell="A2" sqref="A2:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -346,72 +346,405 @@
           <t>PRICE BEFORE</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>AIRLINE</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>08/20/2019</t>
+          <t>08/20/19</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>817 </t>
+          <t>$817</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>718 </t>
+          <t>$718</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Korean Air</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>08/21/2019</t>
+          <t>08/21/19</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>775 </t>
+          <t>$775</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>817 </t>
+          <t>$817</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Korean Air</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>08/23/2019</t>
+          <t>08/23/19</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>817 </t>
+          <t>$817</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>775 </t>
+          <t>$775</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Korean Air</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>08/26/2019</t>
+          <t>08/26/19</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>775 </t>
+          <t>$775</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>817 </t>
+          <t>$817</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Korean Air</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>08/31/19</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>$2,082</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>$1,275</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EVA Air</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>09/03/19</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>$832</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$775</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Multiple airlines</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>09/04/19</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>$663</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$832</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>China Southern</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>09/16/19</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>$798</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$663</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>China Southern</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>09/17/19</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>$742</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$798</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Multiple airlines</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>09/18/19</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>$798</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>$742</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>China Southern</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>09/19/19</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>$1,183</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$1,301</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Multiple airlines</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>09/20/19</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>$742</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$798</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Your tracked</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>09/21/19</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>$798</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$742</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>China Southern</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>09/23/19</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>$742</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$798</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Multiple airlines</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>09/24/19</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>$1,353</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$2,082</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>EVA Air</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>09/25/19</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>$798</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$742</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>China Southern</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>09/26/19</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>$742</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$798</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Multiple airlines</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>09/27/19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>$848</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$742</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Your tracked</t>
         </is>
       </c>
     </row>

--- a/gmail_flight.xlsx
+++ b/gmail_flight.xlsx
@@ -322,10 +322,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D17"/>
+      <selection activeCell="A2" sqref="A2:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -590,7 +590,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Multiple airlines</t>
+          <t>EVA cooperated</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Your tracked</t>
+          <t>EVA cooperated</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,227 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Your tracked</t>
+          <t>EVA cooperated</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>09/28/19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>$1,301</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$1,147</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>EVA cooperated</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>09/29/19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>$742</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$848</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Multiple airlines</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>09/30/19</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>$1,147</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$1,301</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>EVA cooperated</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>10/01/19</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>$878</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$742</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>EVA Air &amp; cooeperated</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>10/04/19</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>$825</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$878</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Multiple airlines</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>10/05/19</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>$1,353</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$2,028</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>EVA Air</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>10/06/19</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>$1,966</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$1,353</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>EVA Air</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>10/07/19</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>$2,520</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$1,966</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>EVA Air</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>10/08/19</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>$2,365</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>$2,520</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>EVA Air</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>10/09/19</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>$757</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>$825</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Multiple airlines</t>
         </is>
       </c>
     </row>
